--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -3290,10 +3290,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sentContent</t>
+          <t>SentContent</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -3294,6 +3294,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3290,10 +3290,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -698,7 +698,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1202,7 +1202,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -2354,7 +2354,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +914,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1310,7 +1310,7 @@
         <v>1.72</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1346,7 +1346,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1382,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1526,7 +1526,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1778,7 +1778,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2282,7 +2282,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2390,7 +2390,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -3290,10 +3290,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -446,7 +446,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -662,7 +662,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -734,7 +734,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -770,7 +770,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -950,7 +950,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>1.72</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1058,7 +1058,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1094,7 +1094,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +1130,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1166,7 +1166,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1238,7 +1238,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1274,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1418,7 +1418,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1454,7 +1454,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1490,7 +1490,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1562,7 +1562,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1598,7 +1598,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1634,7 +1634,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1706,7 +1706,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1742,7 +1742,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1814,7 +1814,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J40" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1850,7 +1850,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -1886,7 +1886,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1922,7 +1922,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -1958,7 +1958,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -1994,7 +1994,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2030,7 +2030,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2066,7 +2066,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2102,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2138,7 +2138,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2174,7 +2174,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2210,7 +2210,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -2246,7 +2246,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2318,7 +2318,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2426,7 +2426,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2462,7 +2462,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -2498,7 +2498,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2534,7 +2534,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2570,7 +2570,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2606,7 +2606,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2642,7 +2642,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2678,7 +2678,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -2714,7 +2714,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -2750,7 +2750,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -2786,7 +2786,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2822,7 +2822,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2858,7 +2858,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2894,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -2930,7 +2930,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -2966,7 +2966,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -3002,7 +3002,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3038,7 +3038,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="J74" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3074,7 +3074,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="J75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3110,7 +3110,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -3146,7 +3146,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3218,7 +3218,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3254,7 +3254,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -3290,7 +3290,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>afact_phase</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,10 +9820,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,10 +9820,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,10 +9820,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,10 +9820,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,10 +9820,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH64" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,10 +9820,10 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH8" t="n">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1816,7 +1816,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -4252,7 +4252,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH46" t="n">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -1932,7 +1932,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH16" t="n">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH25" t="n">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3440,7 +3440,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH31" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH34" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH41" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH47" t="n">
@@ -5876,7 +5876,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -5992,7 +5992,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6340,7 +6340,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -7732,7 +7732,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="AG66" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH66" t="n">
@@ -8080,7 +8080,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH72" t="n">
@@ -8776,7 +8776,7 @@
         <v>1.055986394557823</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -8892,7 +8892,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9008,7 +9008,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ74" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9240,7 +9240,7 @@
         <v>1.208004535147392</v>
       </c>
       <c r="AJ76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="AG77" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH77" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="AG81" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH81" t="n">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Subjects/subject 1/processed_audio_df.xlsx
+++ b/Subjects/subject 1/processed_audio_df.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH2" t="n">
@@ -656,7 +656,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -762,7 +762,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH3" t="n">
@@ -772,7 +772,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH4" t="n">
@@ -888,7 +888,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -994,7 +994,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH5" t="n">
@@ -1004,7 +1004,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH6" t="n">
@@ -1120,7 +1120,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH7" t="n">
@@ -1236,7 +1236,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1352,7 +1352,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH9" t="n">
@@ -1468,7 +1468,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH10" t="n">
@@ -1584,7 +1584,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH11" t="n">
@@ -1700,7 +1700,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH12" t="n">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH13" t="n">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH14" t="n">
@@ -2048,7 +2048,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH15" t="n">
@@ -2164,7 +2164,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -2280,7 +2280,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH17" t="n">
@@ -2396,7 +2396,7 @@
         <v>1.72</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH18" t="n">
@@ -2512,7 +2512,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH19" t="n">
@@ -2628,7 +2628,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH20" t="n">
@@ -2744,7 +2744,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH21" t="n">
@@ -2860,7 +2860,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH22" t="n">
@@ -2976,7 +2976,7 @@
         <v>1.906666666666667</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH23" t="n">
@@ -3092,7 +3092,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH24" t="n">
@@ -3208,7 +3208,7 @@
         <v>1.904013605442177</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3324,7 +3324,7 @@
         <v>2.914671201814059</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH26" t="n">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH27" t="n">
@@ -3556,7 +3556,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH28" t="n">
@@ -3672,7 +3672,7 @@
         <v>2.24265306122449</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH29" t="n">
@@ -3788,7 +3788,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH30" t="n">
@@ -3904,7 +3904,7 @@
         <v>2.752018140589569</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -4020,7 +4020,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH32" t="n">
@@ -4136,7 +4136,7 @@
         <v>1.738684807256236</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH33" t="n">
@@ -4368,7 +4368,7 @@
         <v>2.234671201814059</v>
       </c>
       <c r="AJ34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH35" t="n">
@@ -4484,7 +4484,7 @@
         <v>2.07734693877551</v>
       </c>
       <c r="AJ35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH36" t="n">
@@ -4600,7 +4600,7 @@
         <v>1.72265306122449</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH37" t="n">
@@ -4716,7 +4716,7 @@
         <v>2.75734693877551</v>
       </c>
       <c r="AJ37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH38" t="n">
@@ -4832,7 +4832,7 @@
         <v>1.552018140589569</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH39" t="n">
@@ -4948,7 +4948,7 @@
         <v>2.066666666666667</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH40" t="n">
@@ -5064,7 +5064,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -5180,7 +5180,7 @@
         <v>1.901337868480726</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH42" t="n">
@@ -5296,7 +5296,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH43" t="n">
@@ -5412,7 +5412,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH44" t="n">
@@ -5528,7 +5528,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ44" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH45" t="n">
@@ -5644,7 +5644,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -5760,7 +5760,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH48" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH49" t="n">
@@ -6108,7 +6108,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH50" t="n">
@@ -6224,7 +6224,7 @@
         <v>2.069319727891156</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH51" t="n">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH52" t="n">
@@ -6456,7 +6456,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH53" t="n">
@@ -6572,7 +6572,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH54" t="n">
@@ -6688,7 +6688,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH55" t="n">
@@ -6804,7 +6804,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="AG56" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH56" t="n">
@@ -6920,7 +6920,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ56" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH57" t="n">
@@ -7036,7 +7036,7 @@
         <v>1.735986394557823</v>
       </c>
       <c r="AJ57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH58" t="n">
@@ -7152,7 +7152,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="AG59" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH59" t="n">
@@ -7268,7 +7268,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH60" t="n">
@@ -7384,7 +7384,7 @@
         <v>1.890680272108844</v>
       </c>
       <c r="AJ60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH61" t="n">
@@ -7500,7 +7500,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH62" t="n">
@@ -7616,7 +7616,7 @@
         <v>1.565351473922902</v>
       </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH63" t="n">
@@ -7848,7 +7848,7 @@
         <v>1.549319727891156</v>
       </c>
       <c r="AJ64" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH65" t="n">
@@ -7964,7 +7964,7 @@
         <v>1.218684807256236</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -8186,7 +8186,7 @@
       </c>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH67" t="n">
@@ -8196,7 +8196,7 @@
         <v>1.730680272108843</v>
       </c>
       <c r="AJ67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -8302,7 +8302,7 @@
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>Digit_before_and_AFACT</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH68" t="n">
@@ -8312,7 +8312,7 @@
         <v>1.728004535147392</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="AG69" t="inlineStr">
         <is>
-          <t>MAB_and_AFACT</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH69" t="n">
@@ -8428,7 +8428,7 @@
         <v>1.56265306122449</v>
       </c>
       <c r="AJ69" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH70" t="n">
@@ -8544,7 +8544,7 @@
         <v>1.226666666666667</v>
       </c>
       <c r="AJ70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
       <c r="AH71" t="n">
@@ -8660,7 +8660,7 @@
         <v>1.213333333333333</v>
       </c>
       <c r="AJ71" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_phase</t>
         </is>
       </c>
       <c r="AH73" t="n">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="AG74" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH74" t="n">
@@ -9114,7 +9114,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>MAB_phase</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
       <c r="AH75" t="n">
@@ -9124,7 +9124,7 @@
         <v>1.389319727891156</v>
       </c>
       <c r="AJ75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>MAB_and_Digit_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH76" t="n">
@@ -9356,7 +9356,7 @@
         <v>1.386666666666667</v>
       </c>
       <c r="AJ77" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -9462,7 +9462,7 @@
       </c>
       <c r="AG78" t="inlineStr">
         <is>
-          <t>Dichotic_and_AFACT</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
       <c r="AH78" t="n">
@@ -9472,7 +9472,7 @@
         <v>1.215986394557823</v>
       </c>
       <c r="AJ78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="AG79" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
       <c r="AH79" t="n">
@@ -9588,7 +9588,7 @@
         <v>1.893333333333334</v>
       </c>
       <c r="AJ79" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="AG80" t="inlineStr">
         <is>
-          <t>dichotic_phase</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
       <c r="AH80" t="n">
@@ -9704,7 +9704,7 @@
         <v>1.725351473922903</v>
       </c>
       <c r="AJ80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -9820,7 +9820,7 @@
         <v>3.272018140589569</v>
       </c>
       <c r="AJ81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
